--- a/ProjDoc/CAN_BNC_Mapping2.xlsx
+++ b/ProjDoc/CAN_BNC_Mapping2.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="168">
   <si>
     <t>CAN-Eingang(CAN-BC)</t>
   </si>
@@ -417,9 +417,6 @@
     <t>Raum.T.HK1  (EG)</t>
   </si>
   <si>
-    <t>Raum.T.HK2  (OG1)</t>
-  </si>
-  <si>
     <t>Raum.T.HK4  (DACH)</t>
   </si>
   <si>
@@ -441,12 +438,6 @@
     <t>UVR1611 Modes</t>
   </si>
   <si>
-    <t>HWC Mode (EG &amp; Dach)</t>
-  </si>
-  <si>
-    <t>HWC Mode (RAD3)</t>
-  </si>
-  <si>
     <t>ON/OFF</t>
   </si>
   <si>
@@ -529,6 +520,18 @@
   </si>
   <si>
     <t>T.WW</t>
+  </si>
+  <si>
+    <t>HWC Mode1 (EG)</t>
+  </si>
+  <si>
+    <t>HWC Mode3 (RAD3)</t>
+  </si>
+  <si>
+    <t>Raum.T.HK3  (OG1)</t>
+  </si>
+  <si>
+    <t>HWC Mode4 (Dach)</t>
   </si>
 </sst>
 </file>
@@ -1057,8 +1060,8 @@
   </sheetPr>
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C57" sqref="A57:XFD57"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,7 +1098,7 @@
         <v>77</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="19"/>
@@ -1183,7 +1186,7 @@
         <v>100</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1239,7 +1242,7 @@
         <v>104</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1253,7 +1256,7 @@
         <v>105</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1295,7 +1298,7 @@
         <v>108</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1309,7 +1312,7 @@
         <v>109</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1323,7 +1326,7 @@
         <v>110</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1406,7 +1409,7 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1424,7 +1427,7 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1442,7 +1445,7 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1460,7 +1463,7 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1478,7 +1481,7 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1496,7 +1499,7 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1514,7 +1517,7 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1529,7 +1532,7 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1544,7 +1547,7 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1559,7 +1562,7 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1574,7 +1577,7 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1589,7 +1592,7 @@
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1600,11 +1603,11 @@
         <v>13</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1615,7 +1618,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
@@ -1630,7 +1633,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
@@ -1645,7 +1648,7 @@
         <v>16</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
@@ -1675,12 +1678,12 @@
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1705,7 +1708,7 @@
         <v>78</v>
       </c>
       <c r="I40" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J40" s="22">
         <v>64</v>
@@ -1729,7 +1732,7 @@
         <v>128</v>
       </c>
       <c r="I41" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J41" s="22">
         <v>65</v>
@@ -1750,10 +1753,10 @@
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="I42" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J42" s="22">
         <v>66</v>
@@ -1774,10 +1777,10 @@
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I43" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J43" s="22">
         <v>67</v>
@@ -1798,10 +1801,10 @@
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="I44" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J44" s="22">
         <v>127</v>
@@ -1822,7 +1825,7 @@
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -1840,7 +1843,7 @@
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>23</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -2002,7 +2005,7 @@
       <c r="D57" s="29"/>
       <c r="E57" s="29"/>
       <c r="F57" s="30" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2041,10 +2044,10 @@
         <v>57</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2192,7 +2195,7 @@
         <v>13</v>
       </c>
       <c r="F71" s="21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -2202,7 +2205,7 @@
         <v>14</v>
       </c>
       <c r="F72" s="21" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -2212,7 +2215,7 @@
         <v>15</v>
       </c>
       <c r="F73" s="21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -2222,7 +2225,7 @@
         <v>16</v>
       </c>
       <c r="F74" s="21" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>

--- a/ProjDoc/CAN_BNC_Mapping2.xlsx
+++ b/ProjDoc/CAN_BNC_Mapping2.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asc\repo\UVR1611\ProjDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087A9B70-680B-4C0C-864D-038569156670}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14115"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAN_BC" sheetId="1" r:id="rId1"/>
     <sheet name="CAN-Logging" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CAN_BC!$A$1:$H$74</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CAN_BC!$C$1:$J$74</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -537,7 +538,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -777,7 +778,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1054,17 +1055,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:J74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="1"/>
@@ -2238,7 +2239,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="55" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="57" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="19" max="16383" man="1"/>
     <brk id="38" max="16383" man="1"/>
@@ -2248,14 +2249,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.85546875" style="14" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>

--- a/ProjDoc/CAN_BNC_Mapping2.xlsx
+++ b/ProjDoc/CAN_BNC_Mapping2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asc\repo\UVR1611\ProjDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087A9B70-680B-4C0C-864D-038569156670}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DB1D9D-DFD5-4DD4-B25C-A54B01659148}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="170">
   <si>
     <t>CAN-Eingang(CAN-BC)</t>
   </si>
@@ -403,9 +403,6 @@
     <t>T.Soll.Hk1</t>
   </si>
   <si>
-    <t>T.Soll.Hk4</t>
-  </si>
-  <si>
     <t>11/3/1</t>
   </si>
   <si>
@@ -442,9 +439,6 @@
     <t>ON/OFF</t>
   </si>
   <si>
-    <t>Freigabe all</t>
-  </si>
-  <si>
     <t>UVR1611=&gt;EIB</t>
   </si>
   <si>
@@ -511,9 +505,6 @@
     <t>PID4</t>
   </si>
   <si>
-    <t>T.Soll.HK3</t>
-  </si>
-  <si>
     <t>T.VL9</t>
   </si>
   <si>
@@ -523,16 +514,31 @@
     <t>T.WW</t>
   </si>
   <si>
-    <t>HWC Mode1 (EG)</t>
-  </si>
-  <si>
-    <t>HWC Mode3 (RAD3)</t>
-  </si>
-  <si>
     <t>Raum.T.HK3  (OG1)</t>
   </si>
   <si>
-    <t>HWC Mode4 (Dach)</t>
+    <t>HWC Mode1 (EG)/OUT</t>
+  </si>
+  <si>
+    <t>HWC Mode4 (Dach)/OUT</t>
+  </si>
+  <si>
+    <t>HWC Mode3 (RAD3)/OUT</t>
+  </si>
+  <si>
+    <t>HWC Mode1 (EG)/IN</t>
+  </si>
+  <si>
+    <t>HWC Mode3 (RAD3)/IN</t>
+  </si>
+  <si>
+    <t>HWC Mode4 (Dach)/IN</t>
+  </si>
+  <si>
+    <t>Freigabe ALL / IN</t>
+  </si>
+  <si>
+    <t>Freigabe ALL / OUT</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1068,7 @@
   <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:J74"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,7 +1105,7 @@
         <v>77</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="19"/>
@@ -1187,7 +1193,7 @@
         <v>100</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1201,7 +1207,7 @@
         <v>101</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1243,7 +1249,7 @@
         <v>104</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1257,7 +1263,7 @@
         <v>105</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1299,7 +1305,7 @@
         <v>108</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1313,7 +1319,7 @@
         <v>109</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1327,7 +1333,7 @@
         <v>110</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1340,7 +1346,9 @@
       <c r="G18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C19" s="11">
@@ -1410,7 +1418,7 @@
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1428,7 +1436,7 @@
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1446,7 +1454,7 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1464,7 +1472,7 @@
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1482,7 +1490,7 @@
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1500,7 +1508,7 @@
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1518,7 +1526,7 @@
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1533,7 +1541,7 @@
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1548,7 +1556,7 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1563,7 +1571,7 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1578,7 +1586,7 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -1593,7 +1601,7 @@
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -1604,11 +1612,11 @@
         <v>13</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -1619,11 +1627,11 @@
         <v>14</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>119</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
@@ -1634,7 +1642,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
@@ -1649,7 +1657,7 @@
         <v>16</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1" t="s">
@@ -1675,16 +1683,16 @@
         <v>75</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -1709,7 +1717,7 @@
         <v>78</v>
       </c>
       <c r="I40" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J40" s="22">
         <v>64</v>
@@ -1726,14 +1734,14 @@
         <v>1</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I41" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J41" s="22">
         <v>65</v>
@@ -1750,14 +1758,14 @@
         <v>2</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I42" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J42" s="22">
         <v>66</v>
@@ -1778,10 +1786,10 @@
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I43" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J43" s="22">
         <v>67</v>
@@ -1802,10 +1810,10 @@
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I44" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J44" s="22">
         <v>127</v>
@@ -1826,7 +1834,7 @@
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2006,7 +2014,7 @@
       <c r="D57" s="29"/>
       <c r="E57" s="29"/>
       <c r="F57" s="30" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2045,10 +2053,10 @@
         <v>57</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2196,7 +2204,7 @@
         <v>13</v>
       </c>
       <c r="F71" s="21" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -2206,7 +2214,7 @@
         <v>14</v>
       </c>
       <c r="F72" s="21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
@@ -2216,7 +2224,7 @@
         <v>15</v>
       </c>
       <c r="F73" s="21" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
@@ -2226,7 +2234,7 @@
         <v>16</v>
       </c>
       <c r="F74" s="21" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>

--- a/ProjDoc/CAN_BNC_Mapping2.xlsx
+++ b/ProjDoc/CAN_BNC_Mapping2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asc\repo\UVR1611\ProjDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DB1D9D-DFD5-4DD4-B25C-A54B01659148}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC85DE43-69E3-45C1-B44A-A5A05806CBB4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="CAN-Logging" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CAN_BC!$C$1:$J$74</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CAN_BC!$C$1:$H$74</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -1065,10 +1065,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="C42" workbookViewId="0">
+      <selection activeCell="H74" sqref="C1:H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1589,7 +1589,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C33" s="11">
         <v>12</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C34" s="11">
         <v>13</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C35" s="11">
         <v>14</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C36" s="11">
         <v>15</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="11">
         <v>16</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>10</v>
       </c>
@@ -1674,7 +1674,7 @@
       <c r="E38" s="27"/>
       <c r="F38" s="28"/>
     </row>
-    <row r="39" spans="1:10" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4" t="s">
         <v>1</v>
@@ -1691,11 +1691,8 @@
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="9" t="s">
@@ -1716,14 +1713,8 @@
       <c r="H40" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I40" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="J40" s="22">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C41" s="11">
         <v>1</v>
       </c>
@@ -1740,14 +1731,8 @@
       <c r="H41" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I41" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="J41" s="22">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C42" s="11">
         <v>2</v>
       </c>
@@ -1764,14 +1749,8 @@
       <c r="H42" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I42" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="J42" s="22">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C43" s="11">
         <v>3</v>
       </c>
@@ -1788,14 +1767,8 @@
       <c r="H43" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I43" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="J43" s="22">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C44" s="11">
         <v>4</v>
       </c>
@@ -1812,14 +1785,8 @@
       <c r="H44" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="I44" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="J44" s="22">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C45" s="11">
         <v>5</v>
       </c>
@@ -1837,7 +1804,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C46" s="11">
         <v>6</v>
       </c>
@@ -1855,7 +1822,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C47" s="11">
         <v>7</v>
       </c>
@@ -1873,7 +1840,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C48" s="11">
         <v>8</v>
       </c>
@@ -2149,15 +2116,17 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
     </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C66" s="11">
         <v>8</v>
       </c>
       <c r="F66" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
+      <c r="G66" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H66" s="7"/>
     </row>
     <row r="67" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C67" s="11">
@@ -2166,8 +2135,12 @@
       <c r="F67" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
+      <c r="G67" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="H67" s="22">
+        <v>64</v>
+      </c>
     </row>
     <row r="68" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C68" s="11">
@@ -2176,8 +2149,12 @@
       <c r="F68" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
+      <c r="G68" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="H68" s="22">
+        <v>65</v>
+      </c>
     </row>
     <row r="69" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C69" s="11">
@@ -2186,8 +2163,12 @@
       <c r="F69" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
+      <c r="G69" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="H69" s="22">
+        <v>66</v>
+      </c>
     </row>
     <row r="70" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C70" s="11">
@@ -2196,8 +2177,12 @@
       <c r="F70" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
+      <c r="G70" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="H70" s="22">
+        <v>67</v>
+      </c>
     </row>
     <row r="71" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C71" s="11">
@@ -2206,8 +2191,12 @@
       <c r="F71" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
+      <c r="G71" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="H71" s="22">
+        <v>127</v>
+      </c>
     </row>
     <row r="72" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C72" s="11">
@@ -2247,7 +2236,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="57" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="3" manualBreakCount="3">
     <brk id="19" max="16383" man="1"/>
     <brk id="38" max="16383" man="1"/>
